--- a/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7A744-E91C-43B5-AFB5-48E11AFE4842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8D45C-0475-4FFF-9F80-43F50B5C0E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8D45C-0475-4FFF-9F80-43F50B5C0E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1633E-DFE4-4D8B-ABA0-16FDDB351B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="23" r:id="rId4"/>
+    <sheet name="Norway" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -79,6 +82,24 @@
   </si>
   <si>
     <t>NGC-3445/T2144</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2008</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2026</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1923</t>
   </si>
 </sst>
 </file>
@@ -602,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -698,4 +719,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86F8DEA-9319-4A1D-AF3F-374A431F16C4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA307B9-448B-44A3-B133-26092FC54E5D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF5F002-878B-4104-B529-128A8099E73A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1633E-DFE4-4D8B-ABA0-16FDDB351B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0753A-E8FF-40B6-8867-E8353355760B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="22" r:id="rId3"/>
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
+    <sheet name="Italy" sheetId="25" r:id="rId6"/>
+    <sheet name="Spain" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +102,18 @@
   </si>
   <si>
     <t>NGC-3464/T1923</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2129</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1971</t>
   </si>
 </sst>
 </file>
@@ -929,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF5F002-878B-4104-B529-128A8099E73A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1025,4 +1039,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E18989-36D4-473F-A2DE-1A166B0EE901}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CAD015-D05B-4BF5-A7CB-45AF717BA2D5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_RBUS_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0753A-E8FF-40B6-8867-E8353355760B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DCD2C7-416A-49C3-980E-E9E3A1A6B19D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>NGC-3443/T1971</t>
+  </si>
+  <si>
+    <t>NGC-3003/T3835</t>
   </si>
 </sst>
 </file>
@@ -537,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +586,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1045,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E18989-36D4-473F-A2DE-1A166B0EE901}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
